--- a/Investment/Jan stock summary/result_rank.xlsx
+++ b/Investment/Jan stock summary/result_rank.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>ALK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALK</t>
+          <t>FB</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ETSY</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>ETSY</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATVI</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ATVI</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>EOG</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EOG</t>
+          <t>MTCH</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BBWI</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MTCH</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TWTR</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>DISCA</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DXC</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>DXC</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DISCA</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>NWSA</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SEDG</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CZR</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CZR</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CDAY</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>CDAY</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VIAC</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>UAA</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SEDG</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>TWTR</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>VIAC</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>UAA</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>PENN</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>PXD</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NYCB</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>QRVO</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>FFIV</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PXD</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PENN</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>ALLY</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>LAD</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>DKS</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PVH</t>
+          <t>UTHR</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NYCB</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>CTXS</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>LYB</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FFIV</t>
+          <t>PHM</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>PVH</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>SBNY</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>ANET</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SBNY</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>VSCO</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>QRVO</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>VSCO</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>IPGP</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>FISV</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>SYF</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>IPGP</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DKS</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="C146" t="n">
